--- a/Resources/Data/Stage00 (自動保存済み).xlsx
+++ b/Resources/Data/Stage00 (自動保存済み).xlsx
@@ -702,7 +702,65 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1030,7 +1088,7 @@
   <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1419,34 +1477,34 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1715,66 +1773,66 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2043,13 +2101,13 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2084,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2380,25 +2438,25 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2726,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4332,24 +4390,27 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/Data/Stage00 (自動保存済み).xlsx
+++ b/Resources/Data/Stage00 (自動保存済み).xlsx
@@ -1087,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="B14">
         <v>0</v>
